--- a/옾소 식당 메뉴 및 가격.xlsx
+++ b/옾소 식당 메뉴 및 가격.xlsx
@@ -6,10 +6,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이은지\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이은지\Desktop\한양대 ERICA\1학년\1학년 2학기\오픈소스SW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43F287-CE18-49E5-8BF8-D540974CAD4A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EC5CFE-7051-4BC8-BBC6-3CB77EF14706}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,169 +21,333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+  <si>
+    <t>브라더 스테이크</t>
+  </si>
+  <si>
+    <t>치즈 함박</t>
+  </si>
+  <si>
+    <t>목살 스테이크</t>
+  </si>
+  <si>
+    <t>벌집퐁듀&amp;쉬림프박스 SET</t>
+  </si>
+  <si>
+    <t>쿡스빌</t>
+  </si>
+  <si>
+    <t>탕볶밥</t>
+  </si>
+  <si>
+    <t>알촌</t>
+  </si>
   <si>
     <t>오밥</t>
   </si>
   <si>
-    <t>벌집퐁듀&amp;쉬림프박스 SET</t>
+    <t>뽁짜면</t>
+  </si>
+  <si>
+    <t>볶짬면</t>
+  </si>
+  <si>
+    <t>짬짜면</t>
+  </si>
+  <si>
+    <t>탕짜면</t>
+  </si>
+  <si>
+    <t>비프 스테이크</t>
   </si>
   <si>
     <t>BBQ크림파스타</t>
   </si>
   <si>
+    <t>소맛보새우 정식</t>
+  </si>
+  <si>
+    <t>간장새우장 장식</t>
+  </si>
+  <si>
+    <t>통삼겹스테이크 정식</t>
+  </si>
+  <si>
+    <t>허니쉬림프 정식</t>
+  </si>
+  <si>
+    <t>피자리아 미스터 차이</t>
+  </si>
+  <si>
+    <t>양념치킨스테이크</t>
+  </si>
+  <si>
+    <t>커리치킨스테이크</t>
+  </si>
+  <si>
+    <t>데리포크스테이크</t>
+  </si>
+  <si>
+    <t>바베큐치킨스테이크</t>
+  </si>
+  <si>
+    <t>양념포크스테이크</t>
+  </si>
+  <si>
+    <t>데리치킨스테이크</t>
+  </si>
+  <si>
+    <t>까르보치킨스테이크</t>
+  </si>
+  <si>
+    <t>쉬림프 오일 파스타</t>
+  </si>
+  <si>
+    <t>바베큐포크스테이크</t>
+  </si>
+  <si>
+    <t>커리포크스테이크</t>
+  </si>
+  <si>
+    <t>까르보포크스테이크</t>
+  </si>
+  <si>
+    <t>크랩 로제 파스타</t>
+  </si>
+  <si>
+    <t>스테이크 크림 파스타</t>
+  </si>
+  <si>
+    <t>바베큐 폭립 샘플러</t>
+  </si>
+  <si>
+    <t>핫스테이크 SET</t>
+  </si>
+  <si>
+    <t>삼겹살 스테이크</t>
+  </si>
+  <si>
+    <t>스파이시 치킨 스테이크</t>
+  </si>
+  <si>
+    <t>카레함박</t>
+  </si>
+  <si>
+    <t>에그 함박</t>
+  </si>
+  <si>
+    <t>베이컨피자</t>
+  </si>
+  <si>
+    <t>페퍼로니피자</t>
+  </si>
+  <si>
     <t>불고기알밥</t>
   </si>
   <si>
-    <t>뽁짜면</t>
-  </si>
-  <si>
-    <t>탕볶밥</t>
-  </si>
-  <si>
-    <t>짬짜면</t>
-  </si>
-  <si>
-    <t>볶짬면</t>
-  </si>
-  <si>
-    <t>탕짜면</t>
-  </si>
-  <si>
-    <t>쿡스빌</t>
-  </si>
-  <si>
-    <t>소맛보새우 정식</t>
-  </si>
-  <si>
-    <t>피자리아 미스터 차이</t>
+    <t>진매알밥</t>
+  </si>
+  <si>
+    <t>포지타노</t>
+  </si>
+  <si>
+    <t>더블치즈피자</t>
+  </si>
+  <si>
+    <t>치킨피자</t>
+  </si>
+  <si>
+    <t>짜장알밥</t>
+  </si>
+  <si>
+    <t>스테이크 정식</t>
+  </si>
+  <si>
+    <t>불고기피자</t>
+  </si>
+  <si>
+    <t>해초간짜장</t>
+  </si>
+  <si>
+    <t>약매알밥</t>
   </si>
   <si>
     <t>콤비네이션피자</t>
   </si>
   <si>
-    <t>간장새우장 장식</t>
-  </si>
-  <si>
-    <t>통삼겹스테이크 정식</t>
-  </si>
-  <si>
-    <t>스테이크 정식</t>
+    <t>해초짜장면</t>
+  </si>
+  <si>
+    <t>매콤알밥</t>
+  </si>
+  <si>
+    <t>해물간짜장</t>
+  </si>
+  <si>
+    <t>행복한짬뽕</t>
+  </si>
+  <si>
+    <t>야채피자</t>
+  </si>
+  <si>
+    <t>카레알밥</t>
+  </si>
+  <si>
+    <t>매콤제육</t>
   </si>
   <si>
     <t>매콤치즈알밥</t>
   </si>
   <si>
-    <t>야채피자</t>
-  </si>
-  <si>
-    <t>알촌</t>
-  </si>
-  <si>
-    <t>허니쉬림프 정식</t>
-  </si>
-  <si>
-    <t>불고기피자</t>
-  </si>
-  <si>
     <t>순한알밥</t>
   </si>
   <si>
-    <t>약매알밥</t>
-  </si>
-  <si>
-    <t>카레알밥</t>
-  </si>
-  <si>
-    <t>매콤제육</t>
-  </si>
-  <si>
-    <t>바베큐치킨스테이크</t>
-  </si>
-  <si>
-    <t>커리치킨스테이크</t>
-  </si>
-  <si>
-    <t>까르보치킨스테이크</t>
-  </si>
-  <si>
-    <t>데리치킨스테이크</t>
-  </si>
-  <si>
-    <t>양념치킨스테이크</t>
-  </si>
-  <si>
-    <t>데리포크스테이크</t>
-  </si>
-  <si>
-    <t>양념포크스테이크</t>
-  </si>
-  <si>
-    <t>까르보포크스테이크</t>
-  </si>
-  <si>
-    <t>바베큐포크스테이크</t>
-  </si>
-  <si>
-    <t>커리포크스테이크</t>
-  </si>
-  <si>
-    <t>행복한짬뽕</t>
-  </si>
-  <si>
-    <t>해초짜장면</t>
-  </si>
-  <si>
-    <t>해초간짜장</t>
+    <t>브라더 함박 스테이크</t>
   </si>
   <si>
     <t>행복한 짬뽕</t>
-  </si>
-  <si>
-    <t>해물간짜장</t>
-  </si>
-  <si>
-    <t>페퍼로니피자</t>
-  </si>
-  <si>
-    <t>매콤알밥</t>
-  </si>
-  <si>
-    <t>진매알밥</t>
-  </si>
-  <si>
-    <t>쉬림프 오일 파스타</t>
-  </si>
-  <si>
-    <t>포지타노</t>
-  </si>
-  <si>
-    <t>핫스테이크 SET</t>
-  </si>
-  <si>
-    <t>스테이크 크림 파스타</t>
-  </si>
-  <si>
-    <t>크랩 로제 파스타</t>
-  </si>
-  <si>
-    <t>바베큐 폭립 샘플러</t>
-  </si>
-  <si>
-    <t>치킨피자</t>
-  </si>
-  <si>
-    <t>베이컨피자</t>
-  </si>
-  <si>
-    <t>더블치즈피자</t>
-  </si>
-  <si>
-    <t>짜장알밥</t>
-  </si>
-  <si>
-    <t>피자리아 미스터 차이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>명동찌개마을</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양푼 돼지고기 김치찌개(2~3인)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭한마리 김치찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>양푼명태 내장탕(2~3인)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>한그릇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치제육덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨 와사비마요</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우튀김 와사비마요</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소불고기덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>마늘대패삼겹덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈제오리덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>함박스테이크덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>큐브스테이크덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>연어스테이크덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우장비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생새우비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>날치알아보카도비빔밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생연어덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>연어장덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유메식당</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유라멘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메라멘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>차슈덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이서식당</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이서제육</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>애호박찌개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>애호박칼국수(2인이상)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이서소불고기(2인이상)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>초벌 막창(200g)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생 삼겹살(200g)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>생 목살(200g)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>초벌 삼겹살(200g)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>초벌 목살(200g)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -197,44 +361,39 @@
       <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -247,12 +406,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -269,10 +429,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -286,13 +446,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="40% - 강조색4" xfId="2" builtinId="43"/>
-    <cellStyle name="보통" xfId="1" builtinId="28"/>
+    <cellStyle name="40% - 강조색4" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="보통" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -601,10 +761,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -613,39 +773,39 @@
     <col min="2" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2">
         <v>3000</v>
@@ -675,42 +835,42 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>4500</v>
@@ -743,42 +903,42 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>3900</v>
@@ -811,33 +971,33 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8">
         <v>12000</v>
@@ -861,50 +1021,50 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10">
         <v>6900</v>
       </c>
@@ -942,9 +1102,283 @@
         <v>16900</v>
       </c>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12">
+        <v>4500</v>
+      </c>
+      <c r="C12">
+        <v>5000</v>
+      </c>
+      <c r="D12">
+        <v>5000</v>
+      </c>
+      <c r="E12">
+        <v>5500</v>
+      </c>
+      <c r="F12">
+        <v>6500</v>
+      </c>
+      <c r="G12">
+        <v>6500</v>
+      </c>
+      <c r="H12">
+        <v>6500</v>
+      </c>
+      <c r="I12">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14">
+        <v>13000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="D14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16">
+        <v>6000</v>
+      </c>
+      <c r="C16">
+        <v>6000</v>
+      </c>
+      <c r="D16">
+        <v>6000</v>
+      </c>
+      <c r="E16">
+        <v>7000</v>
+      </c>
+      <c r="F16">
+        <v>7000</v>
+      </c>
+      <c r="G16">
+        <v>7000</v>
+      </c>
+      <c r="H16">
+        <v>7000</v>
+      </c>
+      <c r="I16">
+        <v>7000</v>
+      </c>
+      <c r="J16">
+        <v>8000</v>
+      </c>
+      <c r="K16">
+        <v>8000</v>
+      </c>
+      <c r="L16">
+        <v>8000</v>
+      </c>
+      <c r="M16">
+        <v>8000</v>
+      </c>
+      <c r="N16">
+        <v>8000</v>
+      </c>
+      <c r="O16">
+        <v>8000</v>
+      </c>
+      <c r="P16">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18">
+        <v>6900</v>
+      </c>
+      <c r="C18">
+        <v>6900</v>
+      </c>
+      <c r="D18">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20">
+        <v>6000</v>
+      </c>
+      <c r="C20">
+        <v>6000</v>
+      </c>
+      <c r="D20">
+        <v>6000</v>
+      </c>
+      <c r="E20">
+        <v>7000</v>
+      </c>
+      <c r="F20">
+        <v>7000</v>
+      </c>
+      <c r="G20">
+        <v>11000</v>
+      </c>
+      <c r="H20">
+        <v>11000</v>
+      </c>
+      <c r="I20">
+        <v>11000</v>
+      </c>
+      <c r="J20">
+        <v>12000</v>
+      </c>
+      <c r="K20">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/옾소 식당 메뉴 및 가격.xlsx
+++ b/옾소 식당 메뉴 및 가격.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이은지\Desktop\한양대 ERICA\1학년\1학년 2학기\오픈소스SW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EC5CFE-7051-4BC8-BBC6-3CB77EF14706}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC04F6-CB8B-4C1D-95FD-A872A4AD415D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="113">
   <si>
     <t>브라더 스테이크</t>
   </si>
@@ -347,6 +347,70 @@
   </si>
   <si>
     <t>초벌 목살(200g)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀플랜비</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨 라이스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기 라이스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨감자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우감자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미트볼 감자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기 베이컨 라이스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소시지 감자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기 베이컨 감자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>도스마스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>섞어서 부리또</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨팝콘 부리또</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기 부리또</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육 부리또</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭고기 부리또</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐더 부리또</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -761,10 +825,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1376,6 +1440,106 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22">
+        <v>3500</v>
+      </c>
+      <c r="C22">
+        <v>4000</v>
+      </c>
+      <c r="D22">
+        <v>4000</v>
+      </c>
+      <c r="E22">
+        <v>4000</v>
+      </c>
+      <c r="F22">
+        <v>4000</v>
+      </c>
+      <c r="G22">
+        <v>4500</v>
+      </c>
+      <c r="H22">
+        <v>4500</v>
+      </c>
+      <c r="I22">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24">
+        <v>3500</v>
+      </c>
+      <c r="C24">
+        <v>3500</v>
+      </c>
+      <c r="D24">
+        <v>4000</v>
+      </c>
+      <c r="E24">
+        <v>4000</v>
+      </c>
+      <c r="F24">
+        <v>4000</v>
+      </c>
+      <c r="G24">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/옾소 식당 메뉴 및 가격.xlsx
+++ b/옾소 식당 메뉴 및 가격.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이은지\Desktop\한양대 ERICA\1학년\1학년 2학기\오픈소스SW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyosung/CLionProjects/ERICA_MenuChooChun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC04F6-CB8B-4C1D-95FD-A872A4AD415D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EED137-D926-B64F-A1DB-B8D751E7955C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>브라더 스테이크</t>
   </si>
@@ -411,6 +411,22 @@
   </si>
   <si>
     <t>텐더 부리또</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미하루 덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>부타동 덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>규동 덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>함박스테이크 덮밥</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -825,19 +841,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
@@ -869,7 +885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="2"/>
       <c r="B2">
         <v>3000</v>
@@ -899,7 +915,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -934,7 +950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>4500</v>
@@ -967,7 +983,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1002,7 +1018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>3900</v>
@@ -1035,7 +1051,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1061,7 +1077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="2"/>
       <c r="B8">
         <v>12000</v>
@@ -1085,7 +1101,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1127,7 +1143,7 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="2"/>
       <c r="B10">
         <v>6900</v>
@@ -1166,7 +1182,7 @@
         <v>16900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1195,7 +1211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>4500</v>
@@ -1222,7 +1238,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -1236,7 +1252,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="2"/>
       <c r="B14">
         <v>13000</v>
@@ -1248,7 +1264,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
@@ -1298,7 +1314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="2"/>
       <c r="B16">
         <v>6000</v>
@@ -1346,7 +1362,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -1360,7 +1376,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="2"/>
       <c r="B18">
         <v>6900</v>
@@ -1372,7 +1388,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
         <v>86</v>
       </c>
@@ -1407,7 +1423,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20">
         <v>6000</v>
@@ -1440,7 +1456,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
@@ -1469,7 +1485,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="2"/>
       <c r="B22">
         <v>3500</v>
@@ -1496,7 +1512,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
         <v>106</v>
       </c>
@@ -1519,7 +1535,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="2"/>
       <c r="B24">
         <v>3500</v>
@@ -1538,6 +1554,32 @@
       </c>
       <c r="G24">
         <v>4000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2"/>
+      <c r="B26">
+        <v>6000</v>
+      </c>
+      <c r="C26">
+        <v>6500</v>
+      </c>
+      <c r="D26">
+        <v>6500</v>
       </c>
     </row>
   </sheetData>

--- a/옾소 식당 메뉴 및 가격.xlsx
+++ b/옾소 식당 메뉴 및 가격.xlsx
@@ -6,12 +6,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyosung/CLionProjects/ERICA_MenuChooChun/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dujaejeong/Desktop/LIFE/OpenSourceProject/ERICA_MenuChooChun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EED137-D926-B64F-A1DB-B8D751E7955C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A405F9A7-EED6-1B43-802A-E2CF7910584D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>소맛보새우 정식</t>
   </si>
   <si>
-    <t>간장새우장 장식</t>
-  </si>
-  <si>
     <t>통삼겹스테이크 정식</t>
   </si>
   <si>
@@ -427,6 +424,10 @@
   </si>
   <si>
     <t>함박스테이크 덮밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>간장새우장 정식</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -843,8 +844,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -855,16 +856,16 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -882,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -920,34 +921,34 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -988,34 +989,34 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1053,28 +1054,28 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1103,19 +1104,19 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
@@ -1124,19 +1125,19 @@
         <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>3</v>
@@ -1187,25 +1188,25 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>12</v>
@@ -1240,16 +1241,16 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1266,52 +1267,52 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1364,16 +1365,16 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1390,37 +1391,37 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1458,31 +1459,31 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1514,25 +1515,25 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1558,16 +1559,16 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:11">

--- a/옾소 식당 메뉴 및 가격.xlsx
+++ b/옾소 식당 메뉴 및 가격.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dujaejeong/Desktop/LIFE/OpenSourceProject/ERICA_MenuChooChun/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dujaejeong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A405F9A7-EED6-1B43-802A-E2CF7910584D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B998F95-6EF6-244A-9609-E1913512C016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12920" yWindow="0" windowWidth="12680" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>브라더 스테이크</t>
   </si>
@@ -68,6 +68,9 @@
     <t>소맛보새우 정식</t>
   </si>
   <si>
+    <t>간장새우장 장식</t>
+  </si>
+  <si>
     <t>통삼겹스테이크 정식</t>
   </si>
   <si>
@@ -427,7 +430,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>간장새우장 정식</t>
+    <t>디델리</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정통 퓨전 라볶이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤 비프 라볶이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>크림 치즈 라볶이</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>정통 퓨전 그라탕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>매콤 비프 그라탕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>디델리 김밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>참치 김밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈 김밥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈 참치 김밥</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,6 +568,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -842,10 +884,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -856,16 +898,16 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -883,7 +925,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -921,34 +963,34 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -989,34 +1031,34 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1054,28 +1096,28 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1104,19 +1146,19 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
@@ -1125,19 +1167,19 @@
         <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>3</v>
@@ -1188,25 +1230,25 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>12</v>
@@ -1241,16 +1283,16 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1267,52 +1309,52 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1365,16 +1407,16 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1391,37 +1433,37 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1459,31 +1501,31 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1515,25 +1557,25 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1559,16 +1601,16 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1581,6 +1623,68 @@
       </c>
       <c r="D26">
         <v>6500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4">
+        <v>5500</v>
+      </c>
+      <c r="C28" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D28" s="4">
+        <v>6500</v>
+      </c>
+      <c r="E28" s="4">
+        <v>7000</v>
+      </c>
+      <c r="F28" s="4">
+        <v>7000</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3500</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3000</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3500</v>
       </c>
     </row>
   </sheetData>
